--- a/biology/Mycologie/Boletus_fibrillosus/Boletus_fibrillosus.xlsx
+++ b/biology/Mycologie/Boletus_fibrillosus/Boletus_fibrillosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cèpe fibrilleux
-Boletus fibrillosus, le Cèpe fibrilleux, est une espèce de cèpes comestibles spécifique de la Californie de la famille des Boletaceae. Proche de la morphologie de Boletus edulis mais avec un hyménophore bosselé, il a la particularité d'être en mycorhise avec le Pin Douglas. Il est intégré dans l'un des clades des edulis sensu lato[1], proche de Boletus rex-veris et Boletus pinophilus. Longtemps considéré comme une variété, les nouvelles recherches phylogénétiques considère ce champignon comme une espèce à part entière.
+Boletus fibrillosus, le Cèpe fibrilleux, est une espèce de cèpes comestibles spécifique de la Californie de la famille des Boletaceae. Proche de la morphologie de Boletus edulis mais avec un hyménophore bosselé, il a la particularité d'être en mycorhise avec le Pin Douglas. Il est intégré dans l'un des clades des edulis sensu lato, proche de Boletus rex-veris et Boletus pinophilus. Longtemps considéré comme une variété, les nouvelles recherches phylogénétiques considère ce champignon comme une espèce à part entière.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 Morphologie boletoïde, chapeau convexe. Chair blanche ferme, plissé à la texture finement fibreuse.
@@ -550,9 +564,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivantsUICN  (ref)[2] : Canada, États-Unis. Mycorhize avec pin de Douglas, colline et moyenne montagne, Californie. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivantsUICN  (ref) : Canada, États-Unis. Mycorhize avec pin de Douglas, colline et moyenne montagne, Californie. 
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Excellent comestible.
 </t>
@@ -612,9 +630,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Boletus fibrillosus Thiers, 1975[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Boletus fibrillosus Thiers, 1975.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>H.D. Thiers, California Mushrooms - A Field Guide to the Boletes, 1975, p. 1-261</t>
         </is>
